--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsWithDepartmentsReactionJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsWithDepartmentsReactionJournalReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разные документы\Vodovoz\repo\vodovoz_02\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF790B2E-6815-42E7-BDE3-79406EAF16C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE6840-5B64-4C9C-ADCF-9A83578A2191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="810" windowWidth="18030" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
-    <t>Отчёт по рекламациям</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>{{item.DepartmentReactionTimeString}}</t>
+  </si>
+  <si>
+    <t>Журнал рекламаций с реакцией отделов</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:AMF5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="8" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -635,138 +635,138 @@
     </row>
     <row r="3" spans="1:22" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsWithDepartmentsReactionJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsWithDepartmentsReactionJournalReport.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разные документы\Vodovoz\repo\vodovoz_02\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE6840-5B64-4C9C-ADCF-9A83578A2191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D5441A-D1BC-4F80-9E19-FCD24CCABE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="810" windowWidth="18030" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$4:$V$5</definedName>
+    <definedName name="Rows">Лист1!$A$4:$W$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Журнал рекламаций с реакцией отделов</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>{{item.Driver}}</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMF5"/>
+  <dimension ref="A1:AMG5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -592,22 +598,22 @@
     <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="9" width="15.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="24.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="42.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="38" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="31.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" customWidth="1"/>
-    <col min="23" max="1020" width="10.6640625" style="1"/>
-    <col min="1021" max="1028" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1029" max="16384" width="10.6640625" style="2"/>
+    <col min="11" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="24.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="42.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="17" style="1" customWidth="1"/>
+    <col min="24" max="1021" width="10.6640625" style="1"/>
+    <col min="1022" max="1029" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1030" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -622,18 +628,19 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -668,40 +675,43 @@
         <v>7</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -736,40 +746,43 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsWithDepartmentsReactionJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsWithDepartmentsReactionJournalReport.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разные документы\Vodovoz\repo\vodovoz_02\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Complaints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vodovoz\repo\vodovoz_03\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D5441A-D1BC-4F80-9E19-FCD24CCABE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C1C25D-F992-4CAC-9F7D-B6C9F010708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$4:$W$5</definedName>
+    <definedName name="Rows">Лист1!$A$4:$X$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>{{item.Driver}}</t>
+  </si>
+  <si>
+    <t>Автор результата</t>
+  </si>
+  <si>
+    <t>{{item.ResultCommentsAuthors}}</t>
   </si>
 </sst>
 </file>
@@ -583,10 +589,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMG5"/>
+  <dimension ref="A1:AMH5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -602,18 +608,18 @@
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
     <col min="14" max="15" width="24.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="42.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="38" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="31.6640625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="17" style="1" customWidth="1"/>
-    <col min="24" max="1021" width="10.6640625" style="1"/>
-    <col min="1022" max="1029" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1030" max="16384" width="10.6640625" style="2"/>
+    <col min="17" max="18" width="12.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="38" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="17" style="1" customWidth="1"/>
+    <col min="25" max="1022" width="10.6640625" style="1"/>
+    <col min="1023" max="1030" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1031" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -639,8 +645,9 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -693,25 +700,28 @@
         <v>11</v>
       </c>
       <c r="R3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -764,25 +774,28 @@
         <v>29</v>
       </c>
       <c r="R4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:24" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
